--- a/pred_ohlcv/54_21/2020-01-23 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1029938.731966611</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1030138.731966611</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1030138.731966611</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>813810.1013666105</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>811084.0916666104</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>956536.3910666105</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1219300.71646661</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1126811.52296661</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1610438.45916661</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1611038.45916661</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1467888.91626661</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1706934.18796661</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1510387.83636661</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1387618.44526661</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1184410.46726661</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1024930.18016661</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1185513.14966661</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1086239.57726661</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1002891.985266611</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>848816.9773666105</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>813702.8185666106</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1028971.013066611</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>838226.8482666105</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1024759.281966611</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>824204.3051666105</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1266901.543366611</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1450698.36726661</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1197646.303066611</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>939665.2815666106</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>939665.2815666106</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1041958.032966611</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>797097.2206666105</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>797097.2206666105</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>894211.3993666106</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>693737.3240666105</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>590029.6893666105</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>751249.7450666105</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>632720.2831666105</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>439541.9711666105</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>13068.41196661047</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>145839.0071666105</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>368197.5752666105</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>595921.1730666105</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>596006.1730666105</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>596006.1730666105</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-933191.6089333894</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1027213.798333389</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1035928.071833389</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1186354.664533389</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3604184.28023339</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1900981.88783339</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1723820.87543339</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1857056.33413339</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2030491.43223339</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1843869.91373339</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1962311.99163339</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1962311.99163339</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2142945.83933339</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2688598.851133389</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2163925.627933389</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2064923.547433389</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2302442.627633389</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2092166.521333389</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2331430.302233389</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2300228.703033389</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1851889.185833389</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1943844.484933389</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2166900.155333389</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1993450.981933389</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2161341.024733389</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1972688.126433389</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1860526.407933389</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1860667.244733389</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2083049.106833389</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1735163.697433389</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1742163.697433389</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1986024.392633389</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2143509.805633389</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2043064.827733389</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2206954.639633389</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2206816.697633389</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1962760.206933389</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1860802.143933389</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1860802.143933389</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1061394.931633389</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1052191.931633389</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1404233.153533389</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1505838.532433389</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1505838.532433389</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1617876.823433389</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1730929.501633389</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2144547.890133389</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2339097.605833389</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2064278.373133389</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2154278.373133389</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2054447.535033389</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1932664.484333389</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1745737.951133389</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1959226.887933389</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2149763.483533389</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1437784.53916956</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1210013.23516956</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1510426.199431962</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1308518.274131962</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1076500.871294363</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-917515.6625943634</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1075604.113594363</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1075604.113594363</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1206109.531294364</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1197589.447467389</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1007386.708167389</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1007386.708167389</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1639932.545567389</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1461111.647767389</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1350731.704067389</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1649083.535467389</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1648815.004567389</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1550529.928467389</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1646367.03736739</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1819626.87606739</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1694671.52786739</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2106349.71446739</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2997176.08216739</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2732555.91816739</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2855866.98336739</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-3309093.257507383</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-3141497.056107383</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-10678267.84700739</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-10898012.15110739</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-22003615.64732186</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-22021526.01412186</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-21617520.71772186</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-21528940.34762187</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-21529241.34762187</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-22402531.35942187</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-21514400.97012187</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-22181063.28492187</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-22179743.57802187</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-22179743.57802187</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-21495145.61622187</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-22977531.35652187</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-22976227.43282187</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-20608264.86157205</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-20388823.94027205</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-20225428.31922187</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-20569501.13647168</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-18883149.8861215</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-18877631.0465215</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-18683121.2924215</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-18683121.2924215</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-18953121.2924215</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-25198341.4424215</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-24652505.1940215</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-24687417.23360369</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-24089357.24610369</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-24089511.57230369</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-24469982.7923037</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-23245153.8562037</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-23245153.8562037</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-23764388.0984037</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-23295373.61460369</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-25622969.3013037</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-27757215.41634011</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-28595439.60834011</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-27966654.12074011</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-28253743.77562715</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-28236622.36292715</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-28011856.88277101</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-28015266.32347101</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-28212993.29007101</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-28550796.50397101</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-28162144.61257101</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-28803958.77797101</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-28803958.77797101</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-28804234.52897101</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-29322018.74487101</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-29659525.425271</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-29488656.83954466</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-29488656.83954466</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-30148966.34304466</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-30119003.31529307</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-29768416.6738636</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-29737956.07846597</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-30282952.81349972</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-29919042.2652395</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-29433019.12724197</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-29433019.12724197</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-29812184.88224196</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-29268721.63044196</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-29268721.63044196</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-29574601.94574196</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-29229583.88384196</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-29730420.26474196</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-29835007.67534196</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-29931297.84714196</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-29931297.84714196</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-30281702.26694196</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-29870917.20804196</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-29597268.98694196</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-29136235.60594196</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-29206235.60594196</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-29206235.60594196</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-28564997.28914196</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-28504696.43144196</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-28504752.63714196</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-29096539.24554196</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-29220767.41191989</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-29233467.00921989</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-29865003.75961989</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-30052488.97171989</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-29305037.39381989</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-36611407.72168874</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-36608640.06588874</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-45134897.72738874</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-46134897.72738874</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-66703218.43329346</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-69746641.63749345</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-72806635.38102165</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-72445063.24492165</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-72446177.64882165</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-71711760.24522164</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-71728644.42962165</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-71974759.97272165</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-71540710.63292165</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-71093338.84522165</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-71093338.84522165</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-71845797.37132165</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-71324930.07892165</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-71266290.88003559</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-71624817.3880356</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-71938116.74413559</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-71190254.94714068</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-71190588.92694068</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-71193045.94754069</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-71703493.03994069</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-71703493.03994069</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-72368287.13974069</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-72375101.96444069</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-71170257.08124068</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-71694898.5321407</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-71695148.5321407</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-71280336.45944071</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-71278394.30524071</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-72236218.94474071</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-72537047.41674072</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-72615824.15764071</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-72153839.60104071</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-74642898.0988407</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-76803543.4447407</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-76803543.4447407</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-76101327.0583407</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1029938.731966611</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1030138.731966611</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1030138.731966611</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>813810.1013666105</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>811084.0916666104</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>956536.3910666105</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1219300.71646661</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1126811.52296661</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1610438.45916661</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1611038.45916661</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1467888.91626661</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1706934.18796661</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1510387.83636661</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1387618.44526661</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1184410.46726661</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1024930.18016661</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1185513.14966661</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1086239.57726661</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1002891.985266611</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>848816.9773666105</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>813702.8185666106</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1028971.013066611</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>838226.8482666105</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1024759.281966611</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>824204.3051666105</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1266901.543366611</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1450698.36726661</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1197646.303066611</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>939665.2815666106</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>939665.2815666106</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1041958.032966611</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>797097.2206666105</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>797097.2206666105</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>894211.3993666106</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>693737.3240666105</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>590029.6893666105</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>751249.7450666105</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>632720.2831666105</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>439541.9711666105</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>13068.41196661047</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>145839.0071666105</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>368197.5752666105</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>595921.1730666105</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>596006.1730666105</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>596006.1730666105</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-933191.6089333894</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1027213.798333389</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1035928.071833389</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-788892.2326333895</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-557689.3769333896</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-558883.6560333896</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-281917.2101333896</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-385366.8850333896</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-385216.8850333896</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-338383.9513333896</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-338593.6261333896</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-605538.1401333896</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-947823.7175333896</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-947823.7175333896</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-819735.3225333896</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1043694.99943339</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1186354.664533389</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1602276.306133389</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3604184.28023339</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1900981.88783339</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1723820.87543339</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1857056.33413339</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2030491.43223339</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1843869.91373339</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1962311.99163339</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1962311.99163339</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2142945.83933339</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2280315.52183339</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2280315.52183339</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2085249.74293339</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2293636.44753339</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2034715.75713339</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2214372.83303339</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2062759.91833339</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2180630.75283339</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2117585.394333389</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2163925.627933389</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2064923.547433389</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2302442.627633389</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2092166.521333389</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2331430.302233389</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2300228.703033389</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1851889.185833389</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1943844.484933389</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2166900.155333389</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1993450.981933389</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2161341.024733389</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1972688.126433389</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1860526.407933389</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1860667.244733389</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2083049.106833389</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1735163.697433389</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1742163.697433389</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1986024.392633389</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2143509.805633389</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2043064.827733389</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2206954.639633389</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2206816.697633389</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1962760.206933389</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1860802.143933389</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1860802.143933389</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1061394.931633389</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1052191.931633389</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1404233.153533389</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1505838.532433389</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1505838.532433389</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1617876.823433389</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1730929.501633389</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2144547.890133389</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2339097.605833389</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2064278.373133389</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2154278.373133389</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2054447.535033389</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1932664.484333389</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1745737.951133389</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1959226.887933389</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2149763.483533389</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2397776.877333389</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1174838.07356956</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1437784.53916956</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1210013.23516956</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1416296.35666956</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1510426.199431962</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1308518.274131962</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1076500.871294363</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-917515.6625943634</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1075604.113594363</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1075604.113594363</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1206109.531294364</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1197589.447467389</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1007386.708167389</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1007386.708167389</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1639932.545567389</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1461111.647767389</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1649083.535467389</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1648815.004567389</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1550529.928467389</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1646367.03736739</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1819626.87606739</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1694671.52786739</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2106349.71446739</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2957248.95916739</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2997176.08216739</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2855866.98336739</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-3161236.429807383</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-3403313.616207383</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-3141497.056107383</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-3141497.056107383</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-10678267.84700739</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-10898012.15110739</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-22003615.64732186</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-22021526.01412186</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-21617520.71772186</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-21528940.34762187</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-21529241.34762187</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-22402531.35942187</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-21514400.97012187</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-22181063.28492187</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-22179743.57802187</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-22179743.57802187</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-21495145.61622187</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-22977531.35652187</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-22976227.43282187</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-20608264.86157205</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-20388823.94027205</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-20225428.31922187</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-20569501.13647168</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-18883149.8861215</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-18877631.0465215</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-18683121.2924215</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-18683121.2924215</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-18953121.2924215</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-25198341.4424215</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-24652505.1940215</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-24687417.23360369</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-24089357.24610369</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-24089511.57230369</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-24469982.7923037</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-23245153.8562037</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-23245153.8562037</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-23764388.0984037</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-23295373.61460369</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-25622969.3013037</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-27757215.41634011</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-28595439.60834011</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-27966654.12074011</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-28253743.77562715</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-28236622.36292715</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-28011856.88277101</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-28015266.32347101</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-28212993.29007101</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-28550796.50397101</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-28162144.61257101</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-28803958.77797101</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-28803958.77797101</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-28804234.52897101</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-29322018.74487101</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-29659525.425271</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-29488656.83954466</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-29488656.83954466</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-30148966.34304466</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-30119003.31529307</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-29768416.6738636</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-29737956.07846597</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-30282952.81349972</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-29919042.2652395</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-29433019.12724197</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-29433019.12724197</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-29812184.88224196</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-29268721.63044196</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-29268721.63044196</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-29574601.94574196</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-29229583.88384196</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-29730420.26474196</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-29835007.67534196</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-29931297.84714196</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-29931297.84714196</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-30281702.26694196</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-29870917.20804196</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-29597268.98694196</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-29136235.60594196</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-29206235.60594196</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-29206235.60594196</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-28564997.28914196</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-28504696.43144196</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-28504752.63714196</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-29096539.24554196</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-29220767.41191989</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-29233467.00921989</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-29865003.75961989</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-30052488.97171989</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-29305037.39381989</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-36611407.72168874</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-36608640.06588874</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-45134897.72738874</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-46134897.72738874</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-66530972.01782731</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-66703218.43329346</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-66525470.99099346</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-66524942.99099346</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-67128639.72769345</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-67092579.64399345</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-67092484.64399345</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-67788328.14029345</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-69746641.63749345</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-72189074.31199345</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-71844371.62909347</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-72630681.98769347</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-72806635.38102165</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-72445063.24492165</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-72446177.64882165</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-71711760.24522164</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-71728644.42962165</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-71974759.97272165</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-71540710.63292165</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-71093338.84522165</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-71093338.84522165</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-71845797.37132165</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-71324930.07892165</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-71266290.88003559</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-71624817.3880356</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-71938116.74413559</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-71190254.94714068</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-71190588.92694068</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-71471965.10494068</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-71193045.94754069</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-70982011.89824069</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-70982011.89824069</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-71703493.03994069</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-72368287.13974069</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-72375101.96444069</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-71170257.08124068</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-71952105.67614068</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-71285861.42914069</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-71285487.55614069</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-70566423.62174068</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-70167022.89064069</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-70148253.86054069</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-70116981.94184069</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-70116981.94184069</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-69643909.1049407</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-69677988.9448407</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-69691495.9448407</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-70551127.2855407</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-70966583.8629407</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-71694898.5321407</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-71695148.5321407</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
